--- a/qa/Login-mobAPP.xlsx
+++ b/qa/Login-mobAPP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Project Name</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>L-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"user entered successfully"  </t>
   </si>
   <si>
     <t>L-002</t>
@@ -131,20 +128,61 @@
     <t>L-007</t>
   </si>
   <si>
-    <t>Login-&gt; username as null and password.</t>
-  </si>
-  <si>
     <t>1. GoTo login TC
 2. Enter username as null.
 3. Run TC</t>
   </si>
   <si>
-    <t>Login-&gt; username and password as null.</t>
-  </si>
-  <si>
     <t>1. GoTo login TC
 2. Enter password as null.
 3. Run TC</t>
+  </si>
+  <si>
+    <t>"Success message"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login-&gt; username with null value </t>
+  </si>
+  <si>
+    <t>Error or Warning message 
+"Username is missing"</t>
+  </si>
+  <si>
+    <t>Login-&gt; username field is missing</t>
+  </si>
+  <si>
+    <t>1. GoTo login TC
+2. username field is missing.
+3. Run TC</t>
+  </si>
+  <si>
+    <t>Error or Warning message 
+"Username is missing or empty"</t>
+  </si>
+  <si>
+    <t>Login-&gt; password with null value.</t>
+  </si>
+  <si>
+    <t>Error or Warning message 
+"Password is missing"</t>
+  </si>
+  <si>
+    <t>Login-&gt; password field is missing</t>
+  </si>
+  <si>
+    <t>1. GoTo login TC
+2. password field is missing.
+3. Run TC</t>
+  </si>
+  <si>
+    <t>Error or Warning message 
+"Password is missing or empty"</t>
+  </si>
+  <si>
+    <t>L-008</t>
+  </si>
+  <si>
+    <t>L-009</t>
   </si>
 </sst>
 </file>
@@ -312,16 +350,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,11 +671,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
@@ -666,7 +704,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="22.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -686,131 +724,167 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="96" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" ht="96" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
